--- a/Project-KTXForecasting/Result/Forecasting_1DLag12_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_1DLag12_동해선.xlsx
@@ -42,13 +42,13 @@
     <t>MedAPE</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>NBEATS</t>
   </si>
   <si>
     <t>NBEATSx</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>RNN</t>
@@ -476,25 +476,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>36954477633.1097</v>
+        <v>39330184607.8877</v>
       </c>
       <c r="C2">
-        <v>192235.4744398382</v>
+        <v>198318.3920061064</v>
       </c>
       <c r="D2">
-        <v>0.02614299119690199</v>
+        <v>0.02911834938754192</v>
       </c>
       <c r="E2">
-        <v>74526.80729166667</v>
+        <v>85233.15104166667</v>
       </c>
       <c r="F2">
-        <v>0.07840334713195109</v>
+        <v>0.09537967922567997</v>
       </c>
       <c r="G2">
-        <v>18605.15625</v>
+        <v>29818.9375</v>
       </c>
       <c r="H2">
-        <v>0.03324906500071863</v>
+        <v>0.05183433487813584</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -528,25 +528,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>39330184607.8877</v>
+        <v>37648534025.60189</v>
       </c>
       <c r="C4">
-        <v>198318.3920061064</v>
+        <v>194032.301500554</v>
       </c>
       <c r="D4">
-        <v>0.02911834938754192</v>
+        <v>0.03437594770784365</v>
       </c>
       <c r="E4">
-        <v>85233.15104166667</v>
+        <v>96859.46354166667</v>
       </c>
       <c r="F4">
-        <v>0.09537967922567997</v>
+        <v>0.1200481082023283</v>
       </c>
       <c r="G4">
-        <v>29818.9375</v>
+        <v>25483.375</v>
       </c>
       <c r="H4">
-        <v>0.05183433487813584</v>
+        <v>0.04436331086222695</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -796,13 +796,13 @@
         <v>565822</v>
       </c>
       <c r="D2">
-        <v>553195.9375</v>
+        <v>547445.75</v>
       </c>
       <c r="E2">
         <v>547445.75</v>
       </c>
       <c r="F2">
-        <v>547445.75</v>
+        <v>589847.875</v>
       </c>
       <c r="G2">
         <v>489186</v>
@@ -837,13 +837,13 @@
         <v>1218256</v>
       </c>
       <c r="D3">
-        <v>557556.5</v>
+        <v>541959.25</v>
       </c>
       <c r="E3">
         <v>541959.25</v>
       </c>
       <c r="F3">
-        <v>541959.25</v>
+        <v>580766.5</v>
       </c>
       <c r="G3">
         <v>476629.3125</v>
@@ -878,13 +878,13 @@
         <v>567550</v>
       </c>
       <c r="D4">
-        <v>546951.8125</v>
+        <v>538011.375</v>
       </c>
       <c r="E4">
         <v>538011.375</v>
       </c>
       <c r="F4">
-        <v>538011.375</v>
+        <v>577542.1875</v>
       </c>
       <c r="G4">
         <v>531391.125</v>
@@ -919,13 +919,13 @@
         <v>570404</v>
       </c>
       <c r="D5">
-        <v>556194</v>
+        <v>548922.8125</v>
       </c>
       <c r="E5">
         <v>548922.8125</v>
       </c>
       <c r="F5">
-        <v>548922.8125</v>
+        <v>593091.3125</v>
       </c>
       <c r="G5">
         <v>534748</v>
@@ -960,13 +960,13 @@
         <v>582320</v>
       </c>
       <c r="D6">
-        <v>554806.125</v>
+        <v>542314.125</v>
       </c>
       <c r="E6">
         <v>542314.125</v>
       </c>
       <c r="F6">
-        <v>542314.125</v>
+        <v>609260.875</v>
       </c>
       <c r="G6">
         <v>543119.4375</v>
@@ -1001,13 +1001,13 @@
         <v>549980</v>
       </c>
       <c r="D7">
-        <v>566592.125</v>
+        <v>546989</v>
       </c>
       <c r="E7">
         <v>546989</v>
       </c>
       <c r="F7">
-        <v>546989</v>
+        <v>615828</v>
       </c>
       <c r="G7">
         <v>555667</v>
@@ -1042,13 +1042,13 @@
         <v>605377</v>
       </c>
       <c r="D8">
-        <v>564841.375</v>
+        <v>544951.25</v>
       </c>
       <c r="E8">
         <v>544951.25</v>
       </c>
       <c r="F8">
-        <v>544951.25</v>
+        <v>616480.625</v>
       </c>
       <c r="G8">
         <v>555538.8125</v>
@@ -1083,13 +1083,13 @@
         <v>587287</v>
       </c>
       <c r="D9">
-        <v>558178.875</v>
+        <v>547077.875</v>
       </c>
       <c r="E9">
         <v>547077.875</v>
       </c>
       <c r="F9">
-        <v>547077.875</v>
+        <v>606760.875</v>
       </c>
       <c r="G9">
         <v>555168.1875</v>
@@ -1124,13 +1124,13 @@
         <v>612267</v>
       </c>
       <c r="D10">
-        <v>562983.6875</v>
+        <v>547111.0625</v>
       </c>
       <c r="E10">
         <v>547111.0625</v>
       </c>
       <c r="F10">
-        <v>547111.0625</v>
+        <v>603282.125</v>
       </c>
       <c r="G10">
         <v>552450.4375</v>
@@ -1165,13 +1165,13 @@
         <v>558618</v>
       </c>
       <c r="D11">
-        <v>567793.3125</v>
+        <v>548290.5</v>
       </c>
       <c r="E11">
         <v>548290.5</v>
       </c>
       <c r="F11">
-        <v>548290.5</v>
+        <v>654270.9375</v>
       </c>
       <c r="G11">
         <v>560427.5</v>
@@ -1206,13 +1206,13 @@
         <v>583061</v>
       </c>
       <c r="D12">
-        <v>578363.0625</v>
+        <v>552961.75</v>
       </c>
       <c r="E12">
         <v>552961.75</v>
       </c>
       <c r="F12">
-        <v>552961.75</v>
+        <v>686151.3125</v>
       </c>
       <c r="G12">
         <v>546628.5</v>
@@ -1247,13 +1247,13 @@
         <v>577560</v>
       </c>
       <c r="D13">
-        <v>586821.625</v>
+        <v>549669.4375</v>
       </c>
       <c r="E13">
         <v>549669.4375</v>
       </c>
       <c r="F13">
-        <v>549669.4375</v>
+        <v>714584.1875</v>
       </c>
       <c r="G13">
         <v>576770</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>594676</v>
+        <v>553265.4375</v>
       </c>
       <c r="E14">
         <v>553265.4375</v>
       </c>
       <c r="F14">
-        <v>553265.4375</v>
+        <v>736291.6875</v>
       </c>
       <c r="G14">
         <v>572162.5</v>
@@ -1329,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>611921</v>
+        <v>551639.8125</v>
       </c>
       <c r="E15">
         <v>551639.8125</v>
       </c>
       <c r="F15">
-        <v>551639.8125</v>
+        <v>773882.5625</v>
       </c>
       <c r="G15">
         <v>569824.75</v>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>629103.9375</v>
+        <v>560512</v>
       </c>
       <c r="E16">
         <v>560512</v>
       </c>
       <c r="F16">
-        <v>560512</v>
+        <v>809212.625</v>
       </c>
       <c r="G16">
         <v>170172.515625</v>
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>647539.8125</v>
+        <v>558366.25</v>
       </c>
       <c r="E17">
         <v>558366.25</v>
       </c>
       <c r="F17">
-        <v>558366.25</v>
+        <v>871709.75</v>
       </c>
       <c r="G17">
         <v>-13418.32421875</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>661085.3125</v>
+        <v>558767.875</v>
       </c>
       <c r="E18">
         <v>558767.875</v>
       </c>
       <c r="F18">
-        <v>558767.875</v>
+        <v>888214.4375</v>
       </c>
       <c r="G18">
         <v>-5390.3427734375</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>673754.1875</v>
+        <v>558735.75</v>
       </c>
       <c r="E19">
         <v>558735.75</v>
       </c>
       <c r="F19">
-        <v>558735.75</v>
+        <v>899567.875</v>
       </c>
       <c r="G19">
         <v>-3227.086669921875</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>694197.6875</v>
+        <v>562099.25</v>
       </c>
       <c r="E20">
         <v>562099.25</v>
       </c>
       <c r="F20">
-        <v>562099.25</v>
+        <v>924355.4375</v>
       </c>
       <c r="G20">
         <v>694.2844848632812</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>686909.8125</v>
+        <v>563202.5</v>
       </c>
       <c r="E21">
         <v>563202.5</v>
       </c>
       <c r="F21">
-        <v>563202.5</v>
+        <v>927820.5625</v>
       </c>
       <c r="G21">
         <v>-14026.619140625</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>682603.4375</v>
+        <v>562012.3125</v>
       </c>
       <c r="E22">
         <v>562012.3125</v>
       </c>
       <c r="F22">
-        <v>562012.3125</v>
+        <v>926338.625</v>
       </c>
       <c r="G22">
         <v>3295.5625</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>680557.25</v>
+        <v>560284.625</v>
       </c>
       <c r="E23">
         <v>560284.625</v>
       </c>
       <c r="F23">
-        <v>560284.625</v>
+        <v>926546.0625</v>
       </c>
       <c r="G23">
         <v>-7565.81396484375</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>675603.0625</v>
+        <v>561698.8125</v>
       </c>
       <c r="E24">
         <v>561698.8125</v>
       </c>
       <c r="F24">
-        <v>561698.8125</v>
+        <v>919599.375</v>
       </c>
       <c r="G24">
         <v>-945.9432983398438</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>675471.875</v>
+        <v>561246.625</v>
       </c>
       <c r="E25">
         <v>561246.625</v>
       </c>
       <c r="F25">
-        <v>561246.625</v>
+        <v>930208.625</v>
       </c>
       <c r="G25">
         <v>-6548.328125</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>675658</v>
+        <v>565118.5625</v>
       </c>
       <c r="E26">
         <v>565118.5625</v>
       </c>
       <c r="F26">
-        <v>565118.5625</v>
+        <v>927596.625</v>
       </c>
       <c r="G26">
         <v>-4255.673828125</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>678452.5</v>
+        <v>565561.5625</v>
       </c>
       <c r="E27">
         <v>565561.5625</v>
       </c>
       <c r="F27">
-        <v>565561.5625</v>
+        <v>925695.9375</v>
       </c>
       <c r="G27">
         <v>-4139.31396484375</v>
@@ -1862,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>674381.1875</v>
+        <v>563952.5625</v>
       </c>
       <c r="E28">
         <v>563952.5625</v>
       </c>
       <c r="F28">
-        <v>563952.5625</v>
+        <v>919533.375</v>
       </c>
       <c r="G28">
         <v>-895.8533325195312</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>672952.625</v>
+        <v>570359.5625</v>
       </c>
       <c r="E29">
         <v>570359.5625</v>
       </c>
       <c r="F29">
-        <v>570359.5625</v>
+        <v>922465.25</v>
       </c>
       <c r="G29">
         <v>-8823.6083984375</v>
@@ -1944,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>673731.9375</v>
+        <v>568557.75</v>
       </c>
       <c r="E30">
         <v>568557.75</v>
       </c>
       <c r="F30">
-        <v>568557.75</v>
+        <v>917826.1875</v>
       </c>
       <c r="G30">
         <v>-3814.302490234375</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>671162.125</v>
+        <v>570113.625</v>
       </c>
       <c r="E31">
         <v>570113.625</v>
       </c>
       <c r="F31">
-        <v>570113.625</v>
+        <v>915534.5625</v>
       </c>
       <c r="G31">
         <v>-2852.5625</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>674588.4375</v>
+        <v>572738.6875</v>
       </c>
       <c r="E32">
         <v>572738.6875</v>
       </c>
       <c r="F32">
-        <v>572738.6875</v>
+        <v>932995.875</v>
       </c>
       <c r="G32">
         <v>-9293.8525390625</v>
@@ -2067,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>681250.75</v>
+        <v>572729.4375</v>
       </c>
       <c r="E33">
         <v>572729.4375</v>
       </c>
       <c r="F33">
-        <v>572729.4375</v>
+        <v>938563.75</v>
       </c>
       <c r="G33">
         <v>-4909.99853515625</v>
@@ -2108,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>682882.4375</v>
+        <v>574375.3125</v>
       </c>
       <c r="E34">
         <v>574375.3125</v>
       </c>
       <c r="F34">
-        <v>574375.3125</v>
+        <v>932236.5625</v>
       </c>
       <c r="G34">
         <v>1892.172485351562</v>
@@ -2176,33 +2176,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>6856394228.174785</v>
+        <v>7030421055.112285</v>
       </c>
       <c r="C2">
-        <v>82803.34672085896</v>
+        <v>83847.60613823321</v>
       </c>
       <c r="D2">
-        <v>0.03247038309404028</v>
+        <v>0.0337691811285237</v>
       </c>
       <c r="E2">
-        <v>48989.12369791666</v>
+        <v>50625.60026041666</v>
       </c>
       <c r="F2">
-        <v>0.135954689546955</v>
+        <v>0.1413222352183855</v>
       </c>
       <c r="G2">
-        <v>27712.546875</v>
+        <v>30022.4375</v>
       </c>
       <c r="H2">
-        <v>0.10018092642813</v>
+        <v>0.1019649988736097</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>8055513477.54659</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>8055513477.54659</v>
@@ -2458,13 +2458,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -2499,7 +2499,7 @@
         <v>297771</v>
       </c>
       <c r="D2">
-        <v>250155.515625</v>
+        <v>248162.6875</v>
       </c>
       <c r="E2">
         <v>241886.859375</v>
@@ -2540,7 +2540,7 @@
         <v>527740</v>
       </c>
       <c r="D3">
-        <v>261810.65625</v>
+        <v>259902.15625</v>
       </c>
       <c r="E3">
         <v>240830.921875</v>
@@ -2581,7 +2581,7 @@
         <v>272448</v>
       </c>
       <c r="D4">
-        <v>239267.671875</v>
+        <v>238107.21875</v>
       </c>
       <c r="E4">
         <v>243385.203125</v>
@@ -2622,7 +2622,7 @@
         <v>280402</v>
       </c>
       <c r="D5">
-        <v>243134.0625</v>
+        <v>240844.40625</v>
       </c>
       <c r="E5">
         <v>255144.296875</v>
@@ -2663,7 +2663,7 @@
         <v>249895</v>
       </c>
       <c r="D6">
-        <v>242251.484375</v>
+        <v>239933.828125</v>
       </c>
       <c r="E6">
         <v>245267.828125</v>
@@ -2704,7 +2704,7 @@
         <v>275474</v>
       </c>
       <c r="D7">
-        <v>264674.03125</v>
+        <v>260398.109375</v>
       </c>
       <c r="E7">
         <v>259205.78125</v>
@@ -2745,7 +2745,7 @@
         <v>283487</v>
       </c>
       <c r="D8">
-        <v>257721.09375</v>
+        <v>255232.453125</v>
       </c>
       <c r="E8">
         <v>249237.625</v>
@@ -2786,7 +2786,7 @@
         <v>281015</v>
       </c>
       <c r="D9">
-        <v>254951.96875</v>
+        <v>251924.71875</v>
       </c>
       <c r="E9">
         <v>253888.96875</v>
@@ -2827,7 +2827,7 @@
         <v>324842</v>
       </c>
       <c r="D10">
-        <v>267210.96875</v>
+        <v>265311.96875</v>
       </c>
       <c r="E10">
         <v>264304.25</v>
@@ -2868,7 +2868,7 @@
         <v>240495</v>
       </c>
       <c r="D11">
-        <v>266376.0625</v>
+        <v>264643.4375</v>
       </c>
       <c r="E11">
         <v>260594.359375</v>
@@ -2909,7 +2909,7 @@
         <v>251132</v>
       </c>
       <c r="D12">
-        <v>271861.8125</v>
+        <v>270279.71875</v>
       </c>
       <c r="E12">
         <v>268629.65625</v>
@@ -2950,7 +2950,7 @@
         <v>319320</v>
       </c>
       <c r="D13">
-        <v>289957.9375</v>
+        <v>288365.40625</v>
       </c>
       <c r="E13">
         <v>262983.25</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>301117.6875</v>
+        <v>298961.21875</v>
       </c>
       <c r="E14">
         <v>261533.515625</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>292729.5</v>
+        <v>289432.03125</v>
       </c>
       <c r="E15">
         <v>260116.125</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>433238.9375</v>
+        <v>441897.625</v>
       </c>
       <c r="E16">
         <v>295795.96875</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>332868.9375</v>
+        <v>333236.59375</v>
       </c>
       <c r="E17">
         <v>270018.3125</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>331022.875</v>
+        <v>330587.0625</v>
       </c>
       <c r="E18">
         <v>270940.875</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>335784.34375</v>
+        <v>335645.75</v>
       </c>
       <c r="E19">
         <v>269025.375</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>341542.125</v>
+        <v>339805</v>
       </c>
       <c r="E20">
         <v>271081.125</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>338635.1875</v>
+        <v>335744.625</v>
       </c>
       <c r="E21">
         <v>269341</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>337541.875</v>
+        <v>335512.96875</v>
       </c>
       <c r="E22">
         <v>282276.09375</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>336803.34375</v>
+        <v>336762.375</v>
       </c>
       <c r="E23">
         <v>271262.84375</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>336188.5</v>
+        <v>334956.59375</v>
       </c>
       <c r="E24">
         <v>272525.59375</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>328879.875</v>
+        <v>328184.75</v>
       </c>
       <c r="E25">
         <v>281394.75</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>338523.5</v>
+        <v>337403.4375</v>
       </c>
       <c r="E26">
         <v>277069.71875</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>335149.96875</v>
+        <v>334713.8125</v>
       </c>
       <c r="E27">
         <v>280205.03125</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>329558.03125</v>
+        <v>328106.65625</v>
       </c>
       <c r="E28">
         <v>280058.90625</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>334433.75</v>
+        <v>333620.875</v>
       </c>
       <c r="E29">
         <v>276079.65625</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>333039.65625</v>
+        <v>331690.6875</v>
       </c>
       <c r="E30">
         <v>279958.46875</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>335254.34375</v>
+        <v>334947.34375</v>
       </c>
       <c r="E31">
         <v>282300.21875</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>341490</v>
+        <v>340812.34375</v>
       </c>
       <c r="E32">
         <v>285367.8125</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>345032.84375</v>
+        <v>343830.40625</v>
       </c>
       <c r="E33">
         <v>283862.28125</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>335405.59375</v>
+        <v>334855.09375</v>
       </c>
       <c r="E34">
         <v>283708.90625</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>15459628606.14876</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>15459628606.14876</v>
@@ -3931,28 +3931,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>15965278680.94108</v>
+        <v>15902784272.95158</v>
       </c>
       <c r="C4">
-        <v>126353.7838014401</v>
+        <v>126106.2420063003</v>
       </c>
       <c r="D4">
-        <v>0.04210394266058267</v>
+        <v>0.04172229565712418</v>
       </c>
       <c r="E4">
-        <v>61573.61979166666</v>
+        <v>61279.66927083334</v>
       </c>
       <c r="F4">
-        <v>0.1368615248603089</v>
+        <v>0.1357572692475225</v>
       </c>
       <c r="G4">
-        <v>30566.703125</v>
+        <v>30510.75</v>
       </c>
       <c r="H4">
-        <v>0.09769534109447062</v>
+        <v>0.09872815933905446</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4161,13 +4161,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -4208,7 +4208,7 @@
         <v>273565.71875</v>
       </c>
       <c r="F2">
-        <v>272031.96875</v>
+        <v>272737.1875</v>
       </c>
       <c r="G2">
         <v>274443.71875</v>
@@ -4249,7 +4249,7 @@
         <v>269914.75</v>
       </c>
       <c r="F3">
-        <v>267342.15625</v>
+        <v>268014.8125</v>
       </c>
       <c r="G3">
         <v>276220.125</v>
@@ -4290,7 +4290,7 @@
         <v>276487.75</v>
       </c>
       <c r="F4">
-        <v>269582.40625</v>
+        <v>269432.84375</v>
       </c>
       <c r="G4">
         <v>272027.25</v>
@@ -4331,7 +4331,7 @@
         <v>282261.625</v>
       </c>
       <c r="F5">
-        <v>271168.65625</v>
+        <v>270778.4375</v>
       </c>
       <c r="G5">
         <v>274771.875</v>
@@ -4372,7 +4372,7 @@
         <v>281937.78125</v>
       </c>
       <c r="F6">
-        <v>271436.375</v>
+        <v>271991.28125</v>
       </c>
       <c r="G6">
         <v>269853.03125</v>
@@ -4413,7 +4413,7 @@
         <v>281716.875</v>
       </c>
       <c r="F7">
-        <v>272577.34375</v>
+        <v>273654.40625</v>
       </c>
       <c r="G7">
         <v>272118.21875</v>
@@ -4454,7 +4454,7 @@
         <v>282932.875</v>
       </c>
       <c r="F8">
-        <v>271839.78125</v>
+        <v>272434.59375</v>
       </c>
       <c r="G8">
         <v>276962.5625</v>
@@ -4495,7 +4495,7 @@
         <v>288702.25</v>
       </c>
       <c r="F9">
-        <v>279785.875</v>
+        <v>280394.28125</v>
       </c>
       <c r="G9">
         <v>272416.4375</v>
@@ -4536,7 +4536,7 @@
         <v>288293.71875</v>
       </c>
       <c r="F10">
-        <v>273748.03125</v>
+        <v>274490.59375</v>
       </c>
       <c r="G10">
         <v>283855.90625</v>
@@ -4577,7 +4577,7 @@
         <v>289069.46875</v>
       </c>
       <c r="F11">
-        <v>283475.71875</v>
+        <v>282979.21875</v>
       </c>
       <c r="G11">
         <v>278561.03125</v>
@@ -4618,7 +4618,7 @@
         <v>288357</v>
       </c>
       <c r="F12">
-        <v>292429.0625</v>
+        <v>289676.65625</v>
       </c>
       <c r="G12">
         <v>284047.3125</v>
@@ -4659,7 +4659,7 @@
         <v>289904.25</v>
       </c>
       <c r="F13">
-        <v>298337.875</v>
+        <v>294566.96875</v>
       </c>
       <c r="G13">
         <v>303407.09375</v>
@@ -4700,7 +4700,7 @@
         <v>289813.71875</v>
       </c>
       <c r="F14">
-        <v>301145.3125</v>
+        <v>296293.09375</v>
       </c>
       <c r="G14">
         <v>322156.28125</v>
@@ -4741,7 +4741,7 @@
         <v>292790.375</v>
       </c>
       <c r="F15">
-        <v>305263.875</v>
+        <v>300140.9375</v>
       </c>
       <c r="G15">
         <v>323336.3125</v>
@@ -4782,7 +4782,7 @@
         <v>297582.28125</v>
       </c>
       <c r="F16">
-        <v>318460.59375</v>
+        <v>310192.21875</v>
       </c>
       <c r="G16">
         <v>277402.4375</v>
@@ -4823,7 +4823,7 @@
         <v>297696.375</v>
       </c>
       <c r="F17">
-        <v>323772.5625</v>
+        <v>314005.59375</v>
       </c>
       <c r="G17">
         <v>328122.625</v>
@@ -4864,7 +4864,7 @@
         <v>299861.625</v>
       </c>
       <c r="F18">
-        <v>326586.6875</v>
+        <v>315910.375</v>
       </c>
       <c r="G18">
         <v>299447</v>
@@ -4905,7 +4905,7 @@
         <v>298261.8125</v>
       </c>
       <c r="F19">
-        <v>329069.375</v>
+        <v>318529.375</v>
       </c>
       <c r="G19">
         <v>320139.875</v>
@@ -4946,7 +4946,7 @@
         <v>301662.5625</v>
       </c>
       <c r="F20">
-        <v>330294.875</v>
+        <v>318691.6875</v>
       </c>
       <c r="G20">
         <v>318428.75</v>
@@ -4987,7 +4987,7 @@
         <v>304752.65625</v>
       </c>
       <c r="F21">
-        <v>331976.5625</v>
+        <v>319902.03125</v>
       </c>
       <c r="G21">
         <v>349942.1875</v>
@@ -5028,7 +5028,7 @@
         <v>307189.4375</v>
       </c>
       <c r="F22">
-        <v>334618.4375</v>
+        <v>322404.53125</v>
       </c>
       <c r="G22">
         <v>349530.78125</v>
@@ -5069,7 +5069,7 @@
         <v>304304.5</v>
       </c>
       <c r="F23">
-        <v>332374.90625</v>
+        <v>319966.78125</v>
       </c>
       <c r="G23">
         <v>337713.5625</v>
@@ -5110,7 +5110,7 @@
         <v>305909.96875</v>
       </c>
       <c r="F24">
-        <v>333798</v>
+        <v>321232.5625</v>
       </c>
       <c r="G24">
         <v>339783.40625</v>
@@ -5151,7 +5151,7 @@
         <v>307575.90625</v>
       </c>
       <c r="F25">
-        <v>334437.1875</v>
+        <v>322132.75</v>
       </c>
       <c r="G25">
         <v>343960.75</v>
@@ -5192,7 +5192,7 @@
         <v>306960.875</v>
       </c>
       <c r="F26">
-        <v>335980.875</v>
+        <v>324130.25</v>
       </c>
       <c r="G26">
         <v>344760.3125</v>
@@ -5233,7 +5233,7 @@
         <v>307245.15625</v>
       </c>
       <c r="F27">
-        <v>333077.125</v>
+        <v>320539.3125</v>
       </c>
       <c r="G27">
         <v>322852.125</v>
@@ -5274,7 +5274,7 @@
         <v>308418.40625</v>
       </c>
       <c r="F28">
-        <v>335115.96875</v>
+        <v>322580.40625</v>
       </c>
       <c r="G28">
         <v>311310.125</v>
@@ -5315,7 +5315,7 @@
         <v>307738.0625</v>
       </c>
       <c r="F29">
-        <v>334211.75</v>
+        <v>322242.59375</v>
       </c>
       <c r="G29">
         <v>298408.59375</v>
@@ -5356,7 +5356,7 @@
         <v>309752.8125</v>
       </c>
       <c r="F30">
-        <v>332149.125</v>
+        <v>319792.09375</v>
       </c>
       <c r="G30">
         <v>283613.625</v>
@@ -5397,7 +5397,7 @@
         <v>312617.8125</v>
       </c>
       <c r="F31">
-        <v>331647.9375</v>
+        <v>319519.75</v>
       </c>
       <c r="G31">
         <v>285477.1875</v>
@@ -5438,7 +5438,7 @@
         <v>314122.03125</v>
       </c>
       <c r="F32">
-        <v>333430.8125</v>
+        <v>321469.71875</v>
       </c>
       <c r="G32">
         <v>280366.53125</v>
@@ -5479,7 +5479,7 @@
         <v>319834.9375</v>
       </c>
       <c r="F33">
-        <v>334967.65625</v>
+        <v>322477.4375</v>
       </c>
       <c r="G33">
         <v>283079.1875</v>
@@ -5520,7 +5520,7 @@
         <v>321097.375</v>
       </c>
       <c r="F34">
-        <v>334692.9375</v>
+        <v>321857.125</v>
       </c>
       <c r="G34">
         <v>258729</v>
